--- a/ESEPValidador/data/input/VHAgostoCajaCopi.xlsx
+++ b/ESEPValidador/data/input/VHAgostoCajaCopi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wrubios\Documents\.Ejecutables\Correcciones202\08Agosto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wrubios\Documents\.Ejecutables\ESEValidador\ESEPValidador\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EFB3E8-B992-4236-9956-F72D176592A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF6B19B-476F-4551-86A8-ADA06097E88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="202" sheetId="1" r:id="rId1"/>
@@ -5725,57 +5725,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6165,9 +6115,9 @@
   <dimension ref="A1:DQ186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="V1" sqref="V1"/>
-      <selection pane="bottomLeft" sqref="A1:DO1"/>
+      <selection pane="bottomLeft" activeCell="J124" sqref="J124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -63000,11 +62950,11 @@
   <sheetProtection formatRows="0" selectLockedCells="1"/>
   <autoFilter ref="A1:DP143" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataConsolidate/>
+  <conditionalFormatting sqref="E2:E143">
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E2:E1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E143">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96 E86 E52 E57:E84 E54:E55">
     <cfRule type="duplicateValues" dxfId="5" priority="2"/>
